--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.49</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,932 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1712,4 +1713,1580 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3289,4 +3290,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3298,7 +3299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3309,17 +3310,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3329,14 +3350,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.42</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3345,14 +3388,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.19</v>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3361,14 +3426,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3377,13 +3464,1367 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4723,7 +4724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,17 +4735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4754,14 +4775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.44</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5927</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4770,14 +4813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.42</v>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4786,14 +4851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.19</v>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4802,14 +4889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -4818,13 +4927,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5654,7 +5655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5665,17 +5666,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5685,14 +5706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.58</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5701,14 +5744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.44</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5717,14 +5782,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.42</v>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3699</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5733,14 +5820,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.19</v>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2851</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5749,14 +5858,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5765,13 +5896,1661 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4733</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>56.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4521</t>
+          <t>2.5141</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>1.8478</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -716,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>010094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>交银施罗德产业机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>1.3699</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -754,36 +770,1590 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2851</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>0.0008</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +2388,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,26 +2428,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>19.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>79.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6995</t>
+          <t>1.5927</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +2456,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001901</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>32.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44.68</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5556</t>
+          <t>1.1239</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -924,36 +2494,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.43</t>
+          <t>33.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4799</t>
+          <t>1.0336</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -962,36 +2532,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006615</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合A</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4582</t>
+          <t>0.9055</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1000,36 +2570,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>71.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2116</t>
+          <t>0.5031</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1038,36 +2608,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1223</t>
+          <t>0.4786</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1076,36 +2646,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.3225</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1114,32 +2684,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>011740</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>博时成长精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>75.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1152,36 +2722,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006616</t>
+          <t>006615</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合C</t>
+          <t>工银瑞信战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0942</t>
+          <t>0.2372</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1190,36 +2760,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0856</t>
+          <t>0.2101</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1228,36 +2798,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>003593</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>国泰景气行业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.1865</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1266,36 +2836,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.1444</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1304,32 +2874,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>74.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.1259</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1342,36 +2912,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>77.95</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1380,36 +2950,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>164826</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>工银瑞信创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>65.58</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1418,36 +2988,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>011741</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>博时成长精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>75.84</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0567</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1456,36 +3026,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>001722</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>工银瑞信银和利混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1494,36 +3064,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>009867</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>82.08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0438</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1532,36 +3102,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001902</t>
+          <t>006616</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+          <t>工银瑞信战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>44.68</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0437</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1570,36 +3140,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>001255</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>长城改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>60.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1608,36 +3178,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>65.58</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1646,36 +3216,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>009868</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>82.08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1684,34 +3254,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>010889</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>工银瑞信创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1720,6 +3292,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3288,1430 +6284,6 @@
       </c>
       <c r="H41" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8554</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011740</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0475</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9179</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9133</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6634</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>570005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德成长优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4000</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3483</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3436</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006615</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2786</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2740</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2275</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003593</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰景气行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2117</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>37.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1901</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008786</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1685</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1676</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004784</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商稳健优选股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1446</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011741</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1277</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1237</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>164826</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银瑞信创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1178</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003401</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债债券</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>47.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010697</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0928</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.43</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006616</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005945</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债优选债券A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>46.60</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.73</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005328</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源价值策略股票</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010538</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰惠元混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005946</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债优选债券C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>46.60</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010889</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银瑞信创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010698</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>37.22</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +6318,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4786,26 +6358,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.40</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.43</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5927</t>
+          <t>0.6995</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4814,36 +6386,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>001901</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.39</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>44.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1239</t>
+          <t>0.5556</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4852,36 +6424,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.56</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0336</t>
+          <t>0.4799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4890,36 +6462,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>006615</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>工银瑞信战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9055</t>
+          <t>0.4582</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4928,36 +6500,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5031</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4966,36 +6538,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>88.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4786</t>
+          <t>0.1223</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -5004,36 +6576,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3225</t>
+          <t>0.1173</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -5042,32 +6614,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011740</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时成长精选混合A</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -5080,36 +6652,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006615</t>
+          <t>006616</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合A</t>
+          <t>工银瑞信战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2372</t>
+          <t>0.0942</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5118,36 +6690,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2101</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -5156,36 +6728,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003593</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰景气行业灵活配置混合</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1865</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -5194,36 +6766,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1444</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -5232,32 +6804,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.02</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1259</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5270,36 +6842,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.95</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -5308,36 +6880,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>164826</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信创业板两年定期开放混合A</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>65.58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -5346,36 +6918,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011741</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时成长精选混合C</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>90.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0567</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -5384,36 +6956,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001722</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信银和利混合</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0555</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -5422,36 +6994,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009867</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0438</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -5460,36 +7032,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006616</t>
+          <t>001902</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合C</t>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>44.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -5498,36 +7070,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001255</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长城改革红利灵活配置混合</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>90.14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5536,36 +7108,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>65.58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5574,36 +7146,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009868</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -5612,36 +7184,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010889</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信创业板两年定期开放混合C</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +7225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5676,7 +7246,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5706,36 +7276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.88</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5141</t>
+          <t>0.4521</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5744,36 +7314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>86.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8478</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5782,32 +7352,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010094</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德产业机遇混合</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3699</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5820,1590 +7390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2851</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2851</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2782</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1966</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富互联网核心资产六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9219</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>32.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4882</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4051</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3463</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011740</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3201</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003593</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰景气行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2277</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2242</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2230</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1707</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011022</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富互联网核心资产六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1073</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000763</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0914</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>014606</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011741</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001722</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信银和利混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0650</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>014607</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>34.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>79.81</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>62.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002197</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰鑫策略价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000935</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>浙商汇金转型成长混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>013145</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>浙商汇金先进制造混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>79.03</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001850</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>79.81</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>014549</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>014837</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004252</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>015383</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>014836</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>014960</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7417,144 +7433,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.72</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>15.72</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>7.58</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>9.44</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>8.42</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>3.19</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -600,6 +617,1808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +5110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4715,7 +6534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6291,7 +8110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7219,7 +9038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7427,7 +9246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
+++ b/数据整理/stocks/A股/创业板/300627-华测导航.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>9.970000000000001</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>15.72</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>7.58</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.44</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>8.42</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>3.19</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014788</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014789</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4180,7 +5373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5110,7 +6303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6534,7 +7727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8110,7 +9303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9038,7 +10231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9244,136 +10437,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4733</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>